--- a/00_Inicio/energiaPaises.xlsx
+++ b/00_Inicio/energiaPaises.xlsx
@@ -55,7 +55,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -505,7 +504,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>45.02399999999999</v>
+        <v>45.024</v>
       </c>
       <c r="C6" t="n">
         <v>35759000</v>
@@ -538,7 +537,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>49.90600000000001</v>
+        <v>49.906</v>
       </c>
       <c r="C9" t="n">
         <v>37724000</v>
@@ -582,7 +581,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>42.46100000000001</v>
+        <v>42.461</v>
       </c>
       <c r="C13" t="n">
         <v>40256000</v>
@@ -604,7 +603,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>45.59399999999999</v>
+        <v>45.594</v>
       </c>
       <c r="C15" t="n">
         <v>41484000</v>
@@ -648,7 +647,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>54.19600000000001</v>
+        <v>54.196</v>
       </c>
       <c r="C19" t="n">
         <v>43738000</v>
@@ -1608,7 +1607,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>916.7869999999999</v>
+        <v>916.787</v>
       </c>
       <c r="C4" t="n">
         <v>125331000</v>
@@ -1619,7 +1618,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>926.1030000000001</v>
+        <v>926.103</v>
       </c>
       <c r="C5" t="n">
         <v>125707000</v>
@@ -1905,7 +1904,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>952.3839999999999</v>
+        <v>952.384</v>
       </c>
       <c r="C31" t="n">
         <v>126860000</v>
@@ -1916,7 +1915,7 @@
         <v>2020</v>
       </c>
       <c r="B32" t="n">
-        <v>941.7760000000001</v>
+        <v>941.776</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
@@ -1983,7 +1982,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>538.1659999999999</v>
+        <v>538.1660000000001</v>
       </c>
       <c r="C4" t="n">
         <v>79963000</v>
@@ -2038,7 +2037,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>552.3240000000001</v>
+        <v>552.324</v>
       </c>
       <c r="C9" t="n">
         <v>81399000</v>
@@ -2060,7 +2059,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>556.3009999999999</v>
+        <v>556.301</v>
       </c>
       <c r="C11" t="n">
         <v>81390000</v>
@@ -2375,7 +2374,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.24312903225807</v>
+        <v>55.24312903225808</v>
       </c>
       <c r="C3" t="n">
         <v>3176.145741935483</v>
@@ -2387,7 +2386,7 @@
         <v>1011.245967741935</v>
       </c>
       <c r="F3" t="n">
-        <v>592.1962903225807</v>
+        <v>592.1962903225806</v>
       </c>
     </row>
     <row r="4">
@@ -2409,7 +2408,7 @@
         <v>56.88656356263395</v>
       </c>
       <c r="F4" t="n">
-        <v>39.86665273566664</v>
+        <v>39.86665273566663</v>
       </c>
     </row>
     <row r="5">
@@ -2453,7 +2452,7 @@
         <v>990.3209999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>554.4849999999999</v>
+        <v>554.485</v>
       </c>
     </row>
     <row r="7">
@@ -2535,7 +2534,7 @@
         <v>5245434.620301265</v>
       </c>
       <c r="D10" t="n">
-        <v>83985.52489414621</v>
+        <v>83985.52489414619</v>
       </c>
       <c r="E10" t="n">
         <v>3236.081113965593</v>

--- a/00_Inicio/energiaPaises.xlsx
+++ b/00_Inicio/energiaPaises.xlsx
@@ -55,6 +55,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -504,7 +505,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>45.024</v>
+        <v>45.02399999999999</v>
       </c>
       <c r="C6" t="n">
         <v>35759000</v>
@@ -537,7 +538,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>49.906</v>
+        <v>49.90600000000001</v>
       </c>
       <c r="C9" t="n">
         <v>37724000</v>
@@ -581,7 +582,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>42.461</v>
+        <v>42.46100000000001</v>
       </c>
       <c r="C13" t="n">
         <v>40256000</v>
@@ -603,7 +604,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>45.594</v>
+        <v>45.59399999999999</v>
       </c>
       <c r="C15" t="n">
         <v>41484000</v>
@@ -647,7 +648,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>54.196</v>
+        <v>54.19600000000001</v>
       </c>
       <c r="C19" t="n">
         <v>43738000</v>
@@ -1607,7 +1608,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>916.787</v>
+        <v>916.7869999999999</v>
       </c>
       <c r="C4" t="n">
         <v>125331000</v>
@@ -1618,7 +1619,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>926.103</v>
+        <v>926.1030000000001</v>
       </c>
       <c r="C5" t="n">
         <v>125707000</v>
@@ -1904,7 +1905,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>952.384</v>
+        <v>952.3839999999999</v>
       </c>
       <c r="C31" t="n">
         <v>126860000</v>
@@ -1915,7 +1916,7 @@
         <v>2020</v>
       </c>
       <c r="B32" t="n">
-        <v>941.776</v>
+        <v>941.7760000000001</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
@@ -1982,7 +1983,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>538.1660000000001</v>
+        <v>538.1659999999999</v>
       </c>
       <c r="C4" t="n">
         <v>79963000</v>
@@ -2037,7 +2038,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>552.324</v>
+        <v>552.3240000000001</v>
       </c>
       <c r="C9" t="n">
         <v>81399000</v>
@@ -2059,7 +2060,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>556.301</v>
+        <v>556.3009999999999</v>
       </c>
       <c r="C11" t="n">
         <v>81390000</v>
@@ -2374,7 +2375,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.24312903225808</v>
+        <v>55.24312903225807</v>
       </c>
       <c r="C3" t="n">
         <v>3176.145741935483</v>
@@ -2386,7 +2387,7 @@
         <v>1011.245967741935</v>
       </c>
       <c r="F3" t="n">
-        <v>592.1962903225806</v>
+        <v>592.1962903225807</v>
       </c>
     </row>
     <row r="4">
@@ -2408,7 +2409,7 @@
         <v>56.88656356263395</v>
       </c>
       <c r="F4" t="n">
-        <v>39.86665273566663</v>
+        <v>39.86665273566664</v>
       </c>
     </row>
     <row r="5">
@@ -2452,7 +2453,7 @@
         <v>990.3209999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>554.485</v>
+        <v>554.4849999999999</v>
       </c>
     </row>
     <row r="7">
@@ -2534,7 +2535,7 @@
         <v>5245434.620301265</v>
       </c>
       <c r="D10" t="n">
-        <v>83985.52489414619</v>
+        <v>83985.52489414621</v>
       </c>
       <c r="E10" t="n">
         <v>3236.081113965593</v>
